--- a/data/trans_camb/P6902-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6902-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,67</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,18</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 23,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 32,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,84; 45,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,05; 44,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,6; 28,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,66; 42,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,37; 26,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 24,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,28; 36,85</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,03%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,39; 110,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 159,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,14; 212,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,3; 294,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,13; 187,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,84; 225,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,76; 119,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,68; 107,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,08; 158,55</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 13,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; 4,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,29; 23,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,01; 17,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,93; 22,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 20,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; 12,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,27; 8,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,78; 20,79</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,96%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,61; 35,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,43; 11,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,17; 64,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,33; 40,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,61; 50,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,24; 52,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,38; 29,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,44; 20,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,6; 51,37</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,95; 11,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,94; 5,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 23,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,73; 19,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,73; 17,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,33; 32,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,93; 11,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,41; 7,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,08; 23,7</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,04%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,87; 15,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,2; 7,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 34,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,44; 30,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,86; 29,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,86; 55,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,82; 16,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,54; 10,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,39; 35,51</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,24</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,66</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,62; 11,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,76; 7,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,96; 25,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 15,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 18,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,44; 22,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 11,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 9,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,47; 23,73</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,55%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,67; 27,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,75; 17,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,55; 63,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 34,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 40,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,89; 48,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 25,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,31; 23,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,02; 55,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6902-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,39</t>
+          <t>24,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>17,54</t>
+          <t>18,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,18</t>
+          <t>21,63</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 45,92</t>
+          <t>2,87; 45,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 42,71</t>
+          <t>-11,7; 42,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 36,85</t>
+          <t>4,05; 36,63</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>65,24%</t>
+          <t>68,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>80,03%</t>
+          <t>81,73%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,14; 212,01</t>
+          <t>9,96; 209,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,84; 225,33</t>
+          <t>-28,35; 234,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,08; 158,55</t>
+          <t>14,21; 160,45</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,16</t>
+          <t>14,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,53</t>
+          <t>10,06</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,29; 23,7</t>
+          <t>5,43; 23,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 20,74</t>
+          <t>-19,58; 16,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,78; 20,79</t>
+          <t>-3,44; 17,72</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>23,03%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,17; 64,44</t>
+          <t>11,88; 62,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 52,1</t>
+          <t>-36,35; 36,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 51,37</t>
+          <t>-7,21; 43,95</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>9,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,5</t>
+          <t>18,41</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13,99</t>
+          <t>13,93</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 23,17</t>
+          <t>-2,73; 23,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 32,01</t>
+          <t>7,09; 31,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 23,7</t>
+          <t>4,91; 23,54</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>18,95%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 34,4</t>
+          <t>-3,26; 34,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,86; 55,97</t>
+          <t>8,74; 55,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,39; 35,51</t>
+          <t>6,18; 35,6</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,83</t>
+          <t>18,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,66</t>
+          <t>9,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,71</t>
+          <t>15,17</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,96; 25,43</t>
+          <t>10,38; 24,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,44; 22,42</t>
+          <t>-10,43; 18,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,47; 23,73</t>
+          <t>6,17; 21,77</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>42,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>26,61%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>33,03%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,55; 63,32</t>
+          <t>22,46; 62,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,89; 48,16</t>
+          <t>-16,86; 39,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>26,02; 55,84</t>
+          <t>13,82; 50,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6902-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P6902-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 23,47</t>
+          <t>-5,7; 23,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 32,95</t>
+          <t>-0,99; 32,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,87; 45,1</t>
+          <t>2,97; 44,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 44,81</t>
+          <t>1,25; 45,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 28,71</t>
+          <t>-23,11; 26,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 42,62</t>
+          <t>-13,76; 40,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,37; 26,55</t>
+          <t>2,31; 27,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 24,65</t>
+          <t>-2,31; 25,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 36,63</t>
+          <t>2,84; 38,16</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 110,86</t>
+          <t>-18,68; 117,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 159,14</t>
+          <t>-3,57; 165,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 209,51</t>
+          <t>9,07; 212,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 294,72</t>
+          <t>2,63; 298,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,13; 187,55</t>
+          <t>-68,63; 156,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 234,63</t>
+          <t>-31,9; 224,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 119,73</t>
+          <t>7,37; 126,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 107,83</t>
+          <t>-7,05; 113,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,21; 160,45</t>
+          <t>11,96; 180,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 13,24</t>
+          <t>-5,44; 13,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 4,69</t>
+          <t>-13,13; 4,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 23,02</t>
+          <t>5,23; 23,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 17,84</t>
+          <t>-6,78; 17,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 22,09</t>
+          <t>-3,64; 21,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 16,04</t>
+          <t>-21,39; 15,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 12,09</t>
+          <t>-2,93; 11,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 8,26</t>
+          <t>-6,62; 8,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 17,72</t>
+          <t>-3,36; 17,72</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 35,58</t>
+          <t>-11,63; 35,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,43; 11,99</t>
+          <t>-28,99; 11,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,88; 62,66</t>
+          <t>12,0; 62,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 40,98</t>
+          <t>-12,1; 42,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 50,45</t>
+          <t>-6,53; 49,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 36,14</t>
+          <t>-35,7; 32,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 29,7</t>
+          <t>-5,85; 30,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 20,78</t>
+          <t>-14,01; 20,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 43,95</t>
+          <t>-4,15; 43,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 11,24</t>
+          <t>-22,02; 9,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 5,52</t>
+          <t>-25,23; 5,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 23,11</t>
+          <t>-3,16; 22,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 19,6</t>
+          <t>-15,77; 19,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 17,94</t>
+          <t>-13,02; 19,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 31,79</t>
+          <t>6,06; 31,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 11,43</t>
+          <t>-13,41; 9,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 7,37</t>
+          <t>-13,92; 7,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 23,54</t>
+          <t>4,67; 23,56</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 15,74</t>
+          <t>-26,65; 13,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 7,86</t>
+          <t>-30,76; 7,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 34,26</t>
+          <t>-3,63; 34,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,44; 30,87</t>
+          <t>-20,21; 31,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 29,86</t>
+          <t>-17,04; 32,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,74; 55,86</t>
+          <t>7,85; 56,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 16,27</t>
+          <t>-17,67; 14,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 10,83</t>
+          <t>-17,89; 11,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,18; 35,6</t>
+          <t>5,59; 35,29</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 11,19</t>
+          <t>-3,11; 10,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 7,21</t>
+          <t>-7,93; 6,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,38; 24,89</t>
+          <t>11,34; 26,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 15,87</t>
+          <t>-3,15; 15,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 18,05</t>
+          <t>-1,21; 18,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 18,88</t>
+          <t>-7,31; 19,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 11,26</t>
+          <t>-0,79; 11,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 9,99</t>
+          <t>-1,95; 9,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,17; 21,77</t>
+          <t>5,04; 21,2</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 27,95</t>
+          <t>-6,63; 27,71</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 17,91</t>
+          <t>-16,99; 16,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,46; 62,17</t>
+          <t>24,24; 64,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 34,04</t>
+          <t>-5,97; 33,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 40,37</t>
+          <t>-2,09; 39,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 39,38</t>
+          <t>-12,63; 41,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 25,78</t>
+          <t>-1,72; 25,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 23,87</t>
+          <t>-3,71; 22,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,82; 50,59</t>
+          <t>10,8; 48,0</t>
         </is>
       </c>
     </row>
